--- a/deployment test data/reviews/Reviews.xlsx
+++ b/deployment test data/reviews/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qmulprod-my.sharepoint.com/personal/ec22476_qmul_ac_uk/Documents/Year 3/Final Year Project/EduSource/deployment test data/users/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qmulprod-my.sharepoint.com/personal/ec22476_qmul_ac_uk/Documents/Year 3/Final Year Project/EduSource/deployment test data/reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_F25DC773A252ABDACC1048EA399E71A85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F9B68EF-F95B-4E5C-B916-0170949702FF}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC1048EA399E71A85ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2359FBA5-4E1B-4178-90A8-C3D3EF11310F}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14865" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,13 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +441,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,192 +456,192 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
